--- a/uploads/menu_file.xlsx
+++ b/uploads/menu_file.xlsx
@@ -1,155 +1,287 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmatr\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6A6F7B-0665-4332-8D39-D3E80F98D2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Item Description</t>
-  </si>
-  <si>
-    <t>Price in ISK</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Item name</t>
+  </si>
+  <si>
+    <t>Item description</t>
+  </si>
+  <si>
+    <t>Item price (EUR)</t>
+  </si>
+  <si>
+    <t>Kjúklingavængir</t>
+  </si>
+  <si>
+    <t>Nachos</t>
+  </si>
+  <si>
+    <t>Bakaður Camembert</t>
+  </si>
+  <si>
+    <t>Dúó Brauð</t>
+  </si>
+  <si>
+    <t>Super Avocado</t>
+  </si>
+  <si>
+    <t>Bombay Kjúklingur</t>
+  </si>
+  <si>
+    <t>Persian Kjúklingur</t>
+  </si>
+  <si>
+    <t>Tuna Deluxe</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Caesar Salad</t>
+  </si>
+  <si>
+    <t>Public Deli Salad</t>
+  </si>
+  <si>
+    <t>Vegan Grænmetis Salat</t>
+  </si>
+  <si>
+    <t>Bearnaise Borgari</t>
+  </si>
+  <si>
+    <t>Beikon Borgari</t>
   </si>
   <si>
     <t>Ostborgari</t>
   </si>
   <si>
-    <t>BBQ borgari</t>
-  </si>
-  <si>
-    <t>Beikon borgari</t>
-  </si>
-  <si>
-    <t>Beikon Egg borgari</t>
-  </si>
-  <si>
-    <t>Olsen borgari</t>
-  </si>
-  <si>
-    <t>Olsen Spes borgari</t>
-  </si>
-  <si>
-    <t>Kjúklingaborgari</t>
-  </si>
-  <si>
-    <t>Kjúklingaborgari Southern Fried</t>
-  </si>
-  <si>
-    <t>Vegan borgari</t>
-  </si>
-  <si>
-    <t>Jumpin Jack</t>
-  </si>
-  <si>
-    <t>Sticky Fingers</t>
-  </si>
-  <si>
-    <t>Route 66</t>
-  </si>
-  <si>
-    <t>Country Honk</t>
-  </si>
-  <si>
-    <t>Rock Off</t>
-  </si>
-  <si>
-    <t>Olsen Olsen</t>
-  </si>
-  <si>
-    <t>Heilsu Olsen</t>
-  </si>
-  <si>
-    <t>Snati Olsen</t>
-  </si>
-  <si>
-    <t>Philadephia Olsen</t>
-  </si>
-  <si>
-    <t>Sjávarrétta Olsen</t>
-  </si>
-  <si>
-    <t>Rifja Olsen</t>
-  </si>
-  <si>
-    <t>140gr. burger, lettuce, cucumber, tomatoes, cheese, special sauce</t>
-  </si>
-  <si>
-    <t>140gr. burger, lettuce, tomatoes, cucumber, BBQ sauce, cheese, special sauce</t>
-  </si>
-  <si>
-    <t>140gr. burger, lettuce, cucumber, tomatoes, cheese, bacon, special sauce</t>
-  </si>
-  <si>
-    <t>140gr. burger, bacon, lettuce, cucumber, tomatoes, cheese, and egg</t>
-  </si>
-  <si>
-    <t>140gr. burger with lettuce, tomatoes, cucumber, bacon, ham, double cheese, and special sauce</t>
-  </si>
-  <si>
-    <t>140gr. burger, lettuce, cucumber, tomatoes, Olsen sauce, bacon, butter-fried mushrooms, pepperoni, and double cheese</t>
-  </si>
-  <si>
-    <t>Icelandic chicken burger in a crispy coating, lettuce, cucumber, tomatoes, and Olsen sauce</t>
-  </si>
-  <si>
-    <t>Chicken thigh in a crispy coating topped with Olsen buffalo sauce. Lettuce, cucumber, tomatoes, and Olsen sauce</t>
-  </si>
-  <si>
-    <t>Vegan meat, BBQ sauce, deep-fried onion rings, and fresh salad</t>
-  </si>
-  <si>
-    <t>175gr. burger with plenty of bacon, double cheese, vegetables, Olsen sauce, and fries</t>
-  </si>
-  <si>
-    <t>175gr. burger, butter-fried mushrooms, bacon, double portion of cheese, rustic fries, lettuce, tomatoes, cucumber, and homemade bearnaise sauce</t>
-  </si>
-  <si>
-    <t>175gr. burger with plenty of finely chopped onion and bell pepper, banana pepper, double cheese, lettuce, cucumber, tomatoes, French mustard, ketchup, and French fries</t>
-  </si>
-  <si>
-    <t>Double burger, twice 140gr. with blue cheese, butter-fried mushrooms, bacon, double cheese, red onion jam, lettuce, tomatoes, and cucumber, Olsen sauce, and fries of your choice</t>
-  </si>
-  <si>
-    <t>175gr. cheeseburger with bacon jam, double cheese, vegetables, Olsen sauce, homemade chili mayo, and fries</t>
-  </si>
-  <si>
-    <t>Grilled sausage, baked beans, and bacon</t>
-  </si>
-  <si>
-    <t>Sautéed onions with mushrooms, bell pepper, and corn, lettuce, cucumber, and tomatoes with melted cheese</t>
-  </si>
-  <si>
-    <t>Chili minced beef with sausage and bacon</t>
-  </si>
-  <si>
-    <t>Thinly sliced beef, sautéed onions, melted cheese, pickles, fried onions, and special sauce</t>
-  </si>
-  <si>
-    <t>Deep-fried cod, sautéed onions with red bell pepper and tomatoes, lettuce, and special sauce</t>
-  </si>
-  <si>
-    <t>Soft pork slices with red cabbage, pickles, fried onions, and special sauce</t>
+    <t>Kjúklinga Borgari</t>
+  </si>
+  <si>
+    <t>Vegan Borgari</t>
+  </si>
+  <si>
+    <t>Public Deli Samloka með Kjúkling</t>
+  </si>
+  <si>
+    <t>Public Deli Samloka með Nautakjöt</t>
+  </si>
+  <si>
+    <t>Nautasteik 200gr</t>
+  </si>
+  <si>
+    <t>BBQ Gljáð Grísarif</t>
+  </si>
+  <si>
+    <t>Lambakótilettur</t>
+  </si>
+  <si>
+    <t>Grillað Kjúklingabringa</t>
+  </si>
+  <si>
+    <t>Fiskur &amp; Fransk</t>
+  </si>
+  <si>
+    <t>Grillbður Björk Kjúklingur</t>
+  </si>
+  <si>
+    <t>Belgísk Vaffla</t>
+  </si>
+  <si>
+    <t>Súkkulaðikaka</t>
+  </si>
+  <si>
+    <t>Margarita Pizza</t>
+  </si>
+  <si>
+    <t>Funghi Pizza</t>
+  </si>
+  <si>
+    <t>Vesuvio Pizza</t>
+  </si>
+  <si>
+    <t>Capricciosa Pizza</t>
+  </si>
+  <si>
+    <t>Pepperoni Pizza</t>
+  </si>
+  <si>
+    <t>Rækju Pizza</t>
+  </si>
+  <si>
+    <t>Hráskinku Pizza</t>
+  </si>
+  <si>
+    <t>Hawaii Pizza</t>
+  </si>
+  <si>
+    <t>Public Deli Pizza</t>
+  </si>
+  <si>
+    <t>Fajita Pizza</t>
+  </si>
+  <si>
+    <t>Quatro Pizza</t>
+  </si>
+  <si>
+    <t>Kjöveisla Pizza</t>
+  </si>
+  <si>
+    <t>Grænmetis Pizza</t>
+  </si>
+  <si>
+    <t>Hvítlauksbrauð</t>
+  </si>
+  <si>
+    <t>Hot, BBQ, Bourbon, Celery, Carrot</t>
+  </si>
+  <si>
+    <t>Chicken, Cheese Mix, Jalapeño, Salsa Sauce, Guacamole</t>
+  </si>
+  <si>
+    <t>Mango Chutney, Toasted Sourdough Bread</t>
+  </si>
+  <si>
+    <t>Pizza Halves, Pizza Sauce, Parmesan, Garlic Sauce</t>
+  </si>
+  <si>
+    <t>Chicken, Avocado, Tomato, Spinach, Pesto</t>
+  </si>
+  <si>
+    <t>Chicken, Spinach, Paprika, Pesto</t>
+  </si>
+  <si>
+    <t>Chicken, Paprika, Spinach, Pesto</t>
+  </si>
+  <si>
+    <t>Tuna, Paprika, Jalapeño, Tabasco Sauce, Spinach, Pesto</t>
+  </si>
+  <si>
+    <t>Vegan Chicken, Tomato, Avocado, Spinach, Pesto</t>
+  </si>
+  <si>
+    <t>Chicken, Romaine, Croutons, Parmesan Cheese, Caesar Dressing</t>
+  </si>
+  <si>
+    <t>Chicken, Romaine, Avocado, Red Onion, Tomato, Paprika, Spinach, Dressing</t>
+  </si>
+  <si>
+    <t>Grilled Vegetables, Romaine, Pineapple, Dates, Sweet Potato, Cashew Nut, Grapes, Sun-Dried Dressing</t>
+  </si>
+  <si>
+    <t>Beef, Gouda Cheese, Kale, Bearnaise Sauce, Public Deli Sauce, Fries</t>
+  </si>
+  <si>
+    <t>Beef, Caramelized Onions, BBQ</t>
+  </si>
+  <si>
+    <t>Beef, Cheese, Kale, Public Deli Sauce, Fries</t>
+  </si>
+  <si>
+    <t>Grilled Chicken Breast, Fresh Salad, Chili Mayo, Pickled Cucumber, Fries</t>
+  </si>
+  <si>
+    <t>Vegetable Patty, Caramelized Onions, BBQ Sauce, Sun-Dried Dressing, Fries</t>
+  </si>
+  <si>
+    <t>Sourdough Bread, Chicken Breast, Bacon, Fresh Mozzarella, Salad, Tomato, Chili Mayo, Fries</t>
+  </si>
+  <si>
+    <t>Sourdough Bread, Beef, Salad, Onions, Fries</t>
+  </si>
+  <si>
+    <t>Fresh Salad, Fries, Bearnaise Sauce / Pepper Sauce</t>
+  </si>
+  <si>
+    <t>BBQ Sauce, Fresh Salad, Fries</t>
+  </si>
+  <si>
+    <t>Fresh Salad, Roasted Potatoes, Garlic, Bacon, Bearnaise Sauce, Fries</t>
+  </si>
+  <si>
+    <t>With Spicy Lemon, Fresh Salad, Fries</t>
+  </si>
+  <si>
+    <t>Deep Fried Fish, Fresh Salad, Fries, Cocktail Sauce</t>
+  </si>
+  <si>
+    <t>With Spicy Lemon Pepper, Fresh Salad, Fries, Cocktail Sauce</t>
+  </si>
+  <si>
+    <t>Vanilla / Strawberry / Chocolate Sauce</t>
+  </si>
+  <si>
+    <t>Vanilla / Chocolate Sauce</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Mushrooms</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Ham</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Ham, Mushrooms</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Pepperoni</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Shrimps, Lettuce Salad, Tomato, Parmesan, Garlic Sauce</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Lettuce Salad, Parma Ham, Parmesan, Balsamic Glaze</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Ham, Pineapple</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Pepperoni, Cheese, Dates</t>
+  </si>
+  <si>
+    <t>BBQ Sauce, Mozzarella, Chicken, Onion, Pepper, Jalapeño, Cream Cheese</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Blue Cheese, Brie, Camembert, Jam</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Beef, Ham, Pepperoni, Bacon, Cheese, Onion</t>
+  </si>
+  <si>
+    <t>Pizza Sauce, Mozzarella, Grilled Vegetables, Mushrooms, Garlic Sauce, Vegan Cheese</t>
+  </si>
+  <si>
+    <t>Mozzarella, Salt Flakes, Garlic Sauce</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,24 +333,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,7 +397,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -290,6 +431,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -324,9 +466,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,14 +642,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,224 +665,455 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15.726834500000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15.3252983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.663752299999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15.726834500000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16.663752299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17.332979300000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17.332979300000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15.994525299999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2">
+        <v>18.6714333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2">
+        <v>19.3406603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
-        <v>3760</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
+        <v>19.3406603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20.009887299999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
-        <v>3860</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2">
+        <v>20.009887299999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20.009887299999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="C16" s="2">
+        <v>18.6714333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2">
+        <v>19.3406603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19.3406603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23.356022299999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2">
+        <v>26.7021573</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2">
+        <v>33.394427299999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28.709838300000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2">
+        <v>33.394427299999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="2">
+        <v>26.7021573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20.009887299999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="2">
+        <v>23.356022299999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="2">
+        <v>11.9791633</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2">
+        <v>11.9791633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="2">
+        <v>15.3252983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2">
+        <v>18.002206300000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2">
+        <v>18.6714333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="2">
+        <v>19.3406603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2">
+        <v>18.6714333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2">
+        <v>24.694476300000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="2">
+        <v>24.694476300000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>21.348341300000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="2">
+        <v>24.694476300000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2">
+        <v>24.694476300000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2">
+        <v>28.709838300000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2">
+        <v>31.386746299999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="C21">
-        <v>1795</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2">
+        <v>24.694476300000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="2">
+        <v>15.3252983</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/menu_file.xlsx
+++ b/uploads/menu_file.xlsx
@@ -1,69 +1,361 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmatr\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58FB0D65-7E3F-4EA3-A4F6-51756B7E5EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2220" yWindow="690" windowWidth="21600" windowHeight="11160" xr2:uid="{4EF278E9-0480-487F-AE82-D1D1DBD956EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Biryani_Menu" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Item Name</t>
   </si>
   <si>
-    <t>Item Ingredients</t>
-  </si>
-  <si>
-    <t>Item Price</t>
-  </si>
-  <si>
-    <t>MAGNUM CHICKEN ROLL</t>
-  </si>
-  <si>
-    <t>MAGNUM LAMB ROLL</t>
-  </si>
-  <si>
-    <t>MAGNUM FISH ROLL</t>
-  </si>
-  <si>
-    <t>MAGNUM MIX ROLL</t>
-  </si>
-  <si>
-    <t>BIRYANI MIX ROLL</t>
-  </si>
-  <si>
-    <t>tortilla bread, lettuce , French fries , chicken, garlic sauce , spicy sauce.</t>
-  </si>
-  <si>
-    <t>tortilla bread, lettuce ,red onion , tomato , French fries , lamb, garlic sauce , spicy sauce.</t>
-  </si>
-  <si>
-    <t>tortilla bread, lettuce , French fries , fish, yogurt sauce , spicy sauce.</t>
-  </si>
-  <si>
-    <t>tortilla bread, lettuce , French fries, lamb, chicken, garlic sauce , spicy sauce</t>
-  </si>
-  <si>
-    <t>tortilla bread, lettuce ,biryani rice , chicken, lamb , garlic sauce , spicy sauce.</t>
+    <t>Item Description</t>
+  </si>
+  <si>
+    <t>Item Price (EUR)</t>
+  </si>
+  <si>
+    <t>BIRYANI CHICKEN</t>
+  </si>
+  <si>
+    <t>Yellow rice, chicken, mixed salad, tomato, red onion, cucumber, olive oil, spicy sauce, yogurt sauce.</t>
+  </si>
+  <si>
+    <t>BIRYANI LAMB</t>
+  </si>
+  <si>
+    <t>Yellow rice, lamb, mixed salad, tomato, red onion, cucumber, olive oil, spicy sauce, yogurt sauce.</t>
+  </si>
+  <si>
+    <t>BIRYANI FISH</t>
+  </si>
+  <si>
+    <t>Yellow rice, fish, mixed salad, tomato, cucumber, olive oil, red onion, yogurt sauce, spicy sauce.</t>
+  </si>
+  <si>
+    <t>BIRYANI MIX</t>
+  </si>
+  <si>
+    <t>Yellow rice, lamb, chicken, fish, mixed salad, tomato, red onion, cucumber, olive oil, spicy sauce, yogurt sauce.</t>
+  </si>
+  <si>
+    <t>BIRYANI VEGETARIAN</t>
+  </si>
+  <si>
+    <t>Falafel, Hummus, yellow rice, mixed salad, red onion, tomato, cucumber, yogurt sauce, spicy sauce.</t>
+  </si>
+  <si>
+    <t>SHAWARMA CHICKEN</t>
+  </si>
+  <si>
+    <t>Tortilla bread, marinated chicken in Arabic spices, fries, pomegranate molasses, mayonnaise.</t>
+  </si>
+  <si>
+    <t>SHAWARMA LAMB</t>
+  </si>
+  <si>
+    <t>Tortilla bread, marinated lamb in Arabic spices, mayonnaise, pomegranate molasses, fries.</t>
+  </si>
+  <si>
+    <t>SHAWARMA MIX</t>
+  </si>
+  <si>
+    <t>Tortilla bread, marinated chicken and lamb in Arabic spices, fries, mayonnaise, pomegranate molasses.</t>
+  </si>
+  <si>
+    <t>DONER CHICKEN</t>
+  </si>
+  <si>
+    <t>Pita bread, chicken, mixed salad, garlic sauce, spicy sauce, French fries.</t>
+  </si>
+  <si>
+    <t>DONER LAMB</t>
+  </si>
+  <si>
+    <t>Bread, lamb, mixed salad, tomato, red onion, French fries, garlic sauce, spicy sauce.</t>
+  </si>
+  <si>
+    <t>DONER MIX</t>
+  </si>
+  <si>
+    <t>Pita bread, chicken, lamb, mixed salad, spicy sauce, garlic sauce, French fries.</t>
+  </si>
+  <si>
+    <t>DONER FALAFEL</t>
+  </si>
+  <si>
+    <t>Pita bread, hummus, falafel, mixed salad, tomato, red onion, cucumber, French fries, yogurt sauce, spicy sauce.</t>
+  </si>
+  <si>
+    <t>CHICKEN SALAD</t>
+  </si>
+  <si>
+    <t>Mixed salad, tomato, red onion, cucumber, olive oil, chicken, spicy sauce, garlic sauce.</t>
+  </si>
+  <si>
+    <t>LAMB SALAD</t>
+  </si>
+  <si>
+    <t>Mixed salad, tomato, red onion, cucumber, olive oil, lamb, spicy sauce, garlic sauce.</t>
+  </si>
+  <si>
+    <t>MIX SALAD</t>
+  </si>
+  <si>
+    <t>Mixed salad, tomato, red onion, cucumber, olive oil, chicken, lamb, spicy sauce, garlic sauce.</t>
+  </si>
+  <si>
+    <t>FISH SALAD</t>
+  </si>
+  <si>
+    <t>Mixed salad, tomato, red onion, cucumber, olive oil, fish, spicy sauce, yogurt sauce.</t>
+  </si>
+  <si>
+    <t>MAGNUM LAMB</t>
+  </si>
+  <si>
+    <t>French fries, lamb, mixed salad, red onion, cucumber, tomato, olive oil, spicy sauce, garlic sauce.</t>
+  </si>
+  <si>
+    <t>MAGNUM CHICKEN</t>
+  </si>
+  <si>
+    <t>French fries, chicken, mixed salad, red onion, cucumber, tomato, olive oil, spicy sauce, garlic sauce.</t>
+  </si>
+  <si>
+    <t>MAGNUM FISH</t>
+  </si>
+  <si>
+    <t>French fries, fish, mixed salad, red onion, cucumber, tomato, olive oil, spicy sauce, garlic sauce.</t>
+  </si>
+  <si>
+    <t>MAGNUM MIX</t>
+  </si>
+  <si>
+    <t>French fries, chicken, lamb, mixed salad, red onion, cucumber, tomato, olive oil, spicy sauce, garlic sauce.</t>
+  </si>
+  <si>
+    <t>LAMB MARIA</t>
+  </si>
+  <si>
+    <t>Minced lamb meat marinated in Arabic spices, mozzarella cheese, French fries, garlic sauce.</t>
+  </si>
+  <si>
+    <t>CHICKEN MARIA</t>
+  </si>
+  <si>
+    <t>Minced chicken meat marinated in Arabic spices, mozzarella cheese, French fries, garlic sauce.</t>
+  </si>
+  <si>
+    <t>BEEF BURGER</t>
+  </si>
+  <si>
+    <t>Minced beef, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
+  </si>
+  <si>
+    <t>CHICKEN BURGER</t>
+  </si>
+  <si>
+    <t>Minced chicken, cheese, lettuce, tomato, onion, special hamburger sauce, spicy sauce, fries.</t>
+  </si>
+  <si>
+    <t>LAMB BURGER</t>
+  </si>
+  <si>
+    <t>Minced lamb, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
+  </si>
+  <si>
+    <t>VEGETARIAN BURGER</t>
+  </si>
+  <si>
+    <t>Chickpeas burger, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
+  </si>
+  <si>
+    <t>DOUBLE BEEF BURGER</t>
+  </si>
+  <si>
+    <t>Double minced beef, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
+  </si>
+  <si>
+    <t>EGG BURGER</t>
+  </si>
+  <si>
+    <t>Chicken, lamb or beef, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
+  </si>
+  <si>
+    <t>CHOCOLATE CAKE</t>
+  </si>
+  <si>
+    <t>Deepfrozen round choco cake, filled with choco filling, finished with a choco topping, decorated with chocolate drops.</t>
+  </si>
+  <si>
+    <t>BLACKBERRY CHEESECAKE</t>
+  </si>
+  <si>
+    <t>A plain gluten free biscuit base topped with luxury baked cheesecake.</t>
+  </si>
+  <si>
+    <t>HUMMUS</t>
+  </si>
+  <si>
+    <t>Chickpea, Tahini (sesame seeds), Lemon, Olive oil, Salt, Sumac, Cumin and Allergy Warning: Tahini (Sesame Seeds).</t>
+  </si>
+  <si>
+    <t>BIG FRIES</t>
+  </si>
+  <si>
+    <t>Big Fries.</t>
+  </si>
+  <si>
+    <t>KIDS RICE</t>
+  </si>
+  <si>
+    <t>Kids Rice.</t>
+  </si>
+  <si>
+    <t>KIDS FRIES</t>
+  </si>
+  <si>
+    <t>Kids Fries.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -71,20 +363,200 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -93,35 +565,214 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -136,44 +787,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -200,14 +851,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -234,6 +903,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -245,241 +932,556 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EAB86B-962C-4989-8B58-B102F2EA062D}">
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>14.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>14.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>14.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
-      </c>
-      <c r="C5">
-        <v>15.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
         <v>15.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32">
+        <v>5.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35">
+        <v>9.7100000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/menu_file.xlsx
+++ b/uploads/menu_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmatr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58FB0D65-7E3F-4EA3-A4F6-51756B7E5EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F90374-943C-46CC-AF8F-D870DA54831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="690" windowWidth="21600" windowHeight="11160" xr2:uid="{4EF278E9-0480-487F-AE82-D1D1DBD956EF}"/>
+    <workbookView xWindow="6180" yWindow="2355" windowWidth="21600" windowHeight="11160" xr2:uid="{4EF278E9-0480-487F-AE82-D1D1DBD956EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Biryani_Menu" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>Item Name</t>
   </si>
@@ -233,13 +233,100 @@
   </si>
   <si>
     <t>Kids Fries.</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/DKRtvJ7/800-6012d8a3a0807.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4FddBW5/800-6012d8e670df3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2t7zHgL/800-6012d82e751c0.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/0QBLMr3/800-6012d9626749b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1XXDSmb/800-66392c99b094d.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/1rDv91n/800-66392dae99407.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/hBsYd8m/800-6012d1d6f1af8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/P90SVMs/800-6012d21eefaf5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/PZLbXzg/800-6012d13256a8b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3TJGtbR/800-60134f31a1f32.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/JmRZV7s/800-6012aab2c15a7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/PZG8Njq/800-6012aa1e6fa36.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/PDgF2rJ/800-6012aa618cff2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zFxv5Ds/800-6012cf167d3bb.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/r01ytKq/800-6012ce8dd3461.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/t481pHP/800-6012ce5b80fc7.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/LPzxzRR/800-6012ce123334f.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/NL8T1TR/800-6012adc541a5b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Gd5PdtL/800-6012ae325a211.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/kDBKRbS/800-6012acac63175.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/h2t8vKN/800-6012ad30ba62d.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/bRrt19b/800-6012ad821225e.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/nRpWWtc/800-6012ac57acc78.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/fFJwgXM/800-6012a8d2ca653.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/KNkJ5nQ/800-6012a96d269da.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/KjyjT6F/800-6012a8655da02.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/nktXNQ3/800-6012a812af173.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/LdKwhWm/800-6012a6070a898.jpg</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +457,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -672,7 +767,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -715,11 +810,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -753,6 +850,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1093,13 +1191,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EAB86B-962C-4989-8B58-B102F2EA062D}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1109,8 +1209,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1120,8 +1223,11 @@
       <c r="C2">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1131,8 +1237,11 @@
       <c r="C3">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1251,11 @@
       <c r="C4">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1153,8 +1265,11 @@
       <c r="C5">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1164,8 +1279,11 @@
       <c r="C6">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1175,8 +1293,11 @@
       <c r="C7">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1307,11 @@
       <c r="C8">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1197,8 +1321,11 @@
       <c r="C9">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1208,8 +1335,11 @@
       <c r="C10">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1219,8 +1349,11 @@
       <c r="C11">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1230,8 +1363,11 @@
       <c r="C12">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1241,8 +1377,11 @@
       <c r="C13">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1252,8 +1391,11 @@
       <c r="C14">
         <v>14.67</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1263,8 +1405,11 @@
       <c r="C15">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1274,8 +1419,11 @@
       <c r="C16">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1285,8 +1433,11 @@
       <c r="C17">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1296,8 +1447,11 @@
       <c r="C18">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1307,8 +1461,11 @@
       <c r="C19">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1318,8 +1475,11 @@
       <c r="C20">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1329,8 +1489,11 @@
       <c r="C21">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1340,8 +1503,11 @@
       <c r="C22">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1351,8 +1517,11 @@
       <c r="C23">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1362,8 +1531,11 @@
       <c r="C24">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1373,8 +1545,11 @@
       <c r="C25">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1384,8 +1559,11 @@
       <c r="C26">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -1395,8 +1573,11 @@
       <c r="C27">
         <v>15.34</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1406,8 +1587,11 @@
       <c r="C28">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1417,8 +1601,11 @@
       <c r="C29">
         <v>16.68</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -1428,8 +1615,11 @@
       <c r="C30">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1439,8 +1629,11 @@
       <c r="C31">
         <v>5.03</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -1450,8 +1643,11 @@
       <c r="C32">
         <v>5.96</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1461,8 +1657,11 @@
       <c r="C33">
         <v>6.63</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1472,8 +1671,11 @@
       <c r="C34">
         <v>9.7100000000000009</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -1483,8 +1685,14 @@
       <c r="C35">
         <v>9.7100000000000009</v>
       </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{11A0EBB2-9FC3-4221-AF5B-F0D72A4F336B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/uploads/menu_file.xlsx
+++ b/uploads/menu_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmatr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F90374-943C-46CC-AF8F-D870DA54831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99DA2FA-1E4D-4BCC-A898-5CC20756A525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6180" yWindow="2355" windowWidth="21600" windowHeight="11160" xr2:uid="{4EF278E9-0480-487F-AE82-D1D1DBD956EF}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,7 +1643,7 @@
       <c r="C32">
         <v>5.96</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1692,6 +1692,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{11A0EBB2-9FC3-4221-AF5B-F0D72A4F336B}"/>
+    <hyperlink ref="D32" r:id="rId2" xr:uid="{3A3A61E9-6A78-4F13-8A25-42B814468648}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/menu_file.xlsx
+++ b/uploads/menu_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmatr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99DA2FA-1E4D-4BCC-A898-5CC20756A525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BCF399-AE1A-4D61-90E2-27FD79F95B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2355" windowWidth="21600" windowHeight="11160" xr2:uid="{4EF278E9-0480-487F-AE82-D1D1DBD956EF}"/>
+    <workbookView xWindow="5130" yWindow="2895" windowWidth="21600" windowHeight="11160" xr2:uid="{4EF278E9-0480-487F-AE82-D1D1DBD956EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Biryani_Menu" sheetId="1" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1293,7 @@
       <c r="C7">
         <v>15.34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       <c r="C9">
         <v>16.68</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1693,6 +1693,8 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{11A0EBB2-9FC3-4221-AF5B-F0D72A4F336B}"/>
     <hyperlink ref="D32" r:id="rId2" xr:uid="{3A3A61E9-6A78-4F13-8A25-42B814468648}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{1E6160DD-B8AE-4EED-89DC-0878F6A73B1A}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{1FBA63AB-52A7-4D7A-81A3-151E23D13C56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/menu_file.xlsx
+++ b/uploads/menu_file.xlsx
@@ -1,332 +1,134 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmatr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BCF399-AE1A-4D61-90E2-27FD79F95B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E74166-8294-4D6A-A999-3DE315698AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="2895" windowWidth="21600" windowHeight="11160" xr2:uid="{4EF278E9-0480-487F-AE82-D1D1DBD956EF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{7537A37E-2304-4523-9300-CA0216EBB5A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Biryani_Menu" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample_Menu" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Item Name</t>
   </si>
   <si>
-    <t>Item Description</t>
-  </si>
-  <si>
-    <t>Item Price (EUR)</t>
-  </si>
-  <si>
-    <t>BIRYANI CHICKEN</t>
-  </si>
-  <si>
-    <t>Yellow rice, chicken, mixed salad, tomato, red onion, cucumber, olive oil, spicy sauce, yogurt sauce.</t>
-  </si>
-  <si>
-    <t>BIRYANI LAMB</t>
-  </si>
-  <si>
-    <t>Yellow rice, lamb, mixed salad, tomato, red onion, cucumber, olive oil, spicy sauce, yogurt sauce.</t>
-  </si>
-  <si>
-    <t>BIRYANI FISH</t>
-  </si>
-  <si>
-    <t>Yellow rice, fish, mixed salad, tomato, cucumber, olive oil, red onion, yogurt sauce, spicy sauce.</t>
-  </si>
-  <si>
-    <t>BIRYANI MIX</t>
-  </si>
-  <si>
-    <t>Yellow rice, lamb, chicken, fish, mixed salad, tomato, red onion, cucumber, olive oil, spicy sauce, yogurt sauce.</t>
-  </si>
-  <si>
-    <t>BIRYANI VEGETARIAN</t>
-  </si>
-  <si>
-    <t>Falafel, Hummus, yellow rice, mixed salad, red onion, tomato, cucumber, yogurt sauce, spicy sauce.</t>
-  </si>
-  <si>
-    <t>SHAWARMA CHICKEN</t>
-  </si>
-  <si>
-    <t>Tortilla bread, marinated chicken in Arabic spices, fries, pomegranate molasses, mayonnaise.</t>
-  </si>
-  <si>
-    <t>SHAWARMA LAMB</t>
-  </si>
-  <si>
-    <t>Tortilla bread, marinated lamb in Arabic spices, mayonnaise, pomegranate molasses, fries.</t>
-  </si>
-  <si>
-    <t>SHAWARMA MIX</t>
-  </si>
-  <si>
-    <t>Tortilla bread, marinated chicken and lamb in Arabic spices, fries, mayonnaise, pomegranate molasses.</t>
-  </si>
-  <si>
-    <t>DONER CHICKEN</t>
-  </si>
-  <si>
-    <t>Pita bread, chicken, mixed salad, garlic sauce, spicy sauce, French fries.</t>
-  </si>
-  <si>
-    <t>DONER LAMB</t>
-  </si>
-  <si>
-    <t>Bread, lamb, mixed salad, tomato, red onion, French fries, garlic sauce, spicy sauce.</t>
-  </si>
-  <si>
-    <t>DONER MIX</t>
-  </si>
-  <si>
-    <t>Pita bread, chicken, lamb, mixed salad, spicy sauce, garlic sauce, French fries.</t>
-  </si>
-  <si>
-    <t>DONER FALAFEL</t>
-  </si>
-  <si>
-    <t>Pita bread, hummus, falafel, mixed salad, tomato, red onion, cucumber, French fries, yogurt sauce, spicy sauce.</t>
-  </si>
-  <si>
-    <t>CHICKEN SALAD</t>
-  </si>
-  <si>
-    <t>Mixed salad, tomato, red onion, cucumber, olive oil, chicken, spicy sauce, garlic sauce.</t>
-  </si>
-  <si>
-    <t>LAMB SALAD</t>
-  </si>
-  <si>
-    <t>Mixed salad, tomato, red onion, cucumber, olive oil, lamb, spicy sauce, garlic sauce.</t>
-  </si>
-  <si>
-    <t>MIX SALAD</t>
-  </si>
-  <si>
-    <t>Mixed salad, tomato, red onion, cucumber, olive oil, chicken, lamb, spicy sauce, garlic sauce.</t>
-  </si>
-  <si>
-    <t>FISH SALAD</t>
-  </si>
-  <si>
-    <t>Mixed salad, tomato, red onion, cucumber, olive oil, fish, spicy sauce, yogurt sauce.</t>
-  </si>
-  <si>
-    <t>MAGNUM LAMB</t>
-  </si>
-  <si>
-    <t>French fries, lamb, mixed salad, red onion, cucumber, tomato, olive oil, spicy sauce, garlic sauce.</t>
-  </si>
-  <si>
-    <t>MAGNUM CHICKEN</t>
-  </si>
-  <si>
-    <t>French fries, chicken, mixed salad, red onion, cucumber, tomato, olive oil, spicy sauce, garlic sauce.</t>
-  </si>
-  <si>
-    <t>MAGNUM FISH</t>
-  </si>
-  <si>
-    <t>French fries, fish, mixed salad, red onion, cucumber, tomato, olive oil, spicy sauce, garlic sauce.</t>
-  </si>
-  <si>
-    <t>MAGNUM MIX</t>
-  </si>
-  <si>
-    <t>French fries, chicken, lamb, mixed salad, red onion, cucumber, tomato, olive oil, spicy sauce, garlic sauce.</t>
-  </si>
-  <si>
-    <t>LAMB MARIA</t>
-  </si>
-  <si>
-    <t>Minced lamb meat marinated in Arabic spices, mozzarella cheese, French fries, garlic sauce.</t>
-  </si>
-  <si>
-    <t>CHICKEN MARIA</t>
-  </si>
-  <si>
-    <t>Minced chicken meat marinated in Arabic spices, mozzarella cheese, French fries, garlic sauce.</t>
-  </si>
-  <si>
-    <t>BEEF BURGER</t>
-  </si>
-  <si>
-    <t>Minced beef, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
-  </si>
-  <si>
-    <t>CHICKEN BURGER</t>
-  </si>
-  <si>
-    <t>Minced chicken, cheese, lettuce, tomato, onion, special hamburger sauce, spicy sauce, fries.</t>
-  </si>
-  <si>
-    <t>LAMB BURGER</t>
-  </si>
-  <si>
-    <t>Minced lamb, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
-  </si>
-  <si>
-    <t>VEGETARIAN BURGER</t>
-  </si>
-  <si>
-    <t>Chickpeas burger, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
-  </si>
-  <si>
-    <t>DOUBLE BEEF BURGER</t>
-  </si>
-  <si>
-    <t>Double minced beef, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
-  </si>
-  <si>
-    <t>EGG BURGER</t>
-  </si>
-  <si>
-    <t>Chicken, lamb or beef, cheese, lettuce, tomato, red onion, special hamburger sauce, spicy sauce, fries.</t>
-  </si>
-  <si>
-    <t>CHOCOLATE CAKE</t>
-  </si>
-  <si>
-    <t>Deepfrozen round choco cake, filled with choco filling, finished with a choco topping, decorated with chocolate drops.</t>
-  </si>
-  <si>
-    <t>BLACKBERRY CHEESECAKE</t>
-  </si>
-  <si>
-    <t>A plain gluten free biscuit base topped with luxury baked cheesecake.</t>
-  </si>
-  <si>
-    <t>HUMMUS</t>
-  </si>
-  <si>
-    <t>Chickpea, Tahini (sesame seeds), Lemon, Olive oil, Salt, Sumac, Cumin and Allergy Warning: Tahini (Sesame Seeds).</t>
-  </si>
-  <si>
-    <t>BIG FRIES</t>
-  </si>
-  <si>
-    <t>Big Fries.</t>
-  </si>
-  <si>
-    <t>KIDS RICE</t>
-  </si>
-  <si>
-    <t>Kids Rice.</t>
-  </si>
-  <si>
-    <t>KIDS FRIES</t>
-  </si>
-  <si>
-    <t>Kids Fries.</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/DKRtvJ7/800-6012d8a3a0807.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/4FddBW5/800-6012d8e670df3.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/2t7zHgL/800-6012d82e751c0.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/0QBLMr3/800-6012d9626749b.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/1XXDSmb/800-66392c99b094d.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/1rDv91n/800-66392dae99407.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/hBsYd8m/800-6012d1d6f1af8.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/P90SVMs/800-6012d21eefaf5.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/PZLbXzg/800-6012d13256a8b.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/3TJGtbR/800-60134f31a1f32.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/JmRZV7s/800-6012aab2c15a7.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/PZG8Njq/800-6012aa1e6fa36.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/PDgF2rJ/800-6012aa618cff2.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/zFxv5Ds/800-6012cf167d3bb.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/r01ytKq/800-6012ce8dd3461.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/t481pHP/800-6012ce5b80fc7.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/LPzxzRR/800-6012ce123334f.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/NL8T1TR/800-6012adc541a5b.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/Gd5PdtL/800-6012ae325a211.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/kDBKRbS/800-6012acac63175.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/h2t8vKN/800-6012ad30ba62d.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/bRrt19b/800-6012ad821225e.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/nRpWWtc/800-6012ac57acc78.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/fFJwgXM/800-6012a8d2ca653.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/KNkJ5nQ/800-6012a96d269da.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/KjyjT6F/800-6012a8655da02.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/nktXNQ3/800-6012a812af173.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/LdKwhWm/800-6012a6070a898.jpg</t>
-  </si>
-  <si>
-    <t>Image</t>
+    <t>Item Ingredients</t>
+  </si>
+  <si>
+    <t>Item Price</t>
+  </si>
+  <si>
+    <t>Image Link</t>
+  </si>
+  <si>
+    <t>Margherita Pizza</t>
+  </si>
+  <si>
+    <t>Tomato, mozzarella, basil, olive oil</t>
+  </si>
+  <si>
+    <t>https://example.com/margherita_pizza.jpg</t>
+  </si>
+  <si>
+    <t>Cheeseburger</t>
+  </si>
+  <si>
+    <t>Beef patty, cheddar cheese, lettuce, tomato, bun</t>
+  </si>
+  <si>
+    <t>https://example.com/cheeseburger.jpg</t>
+  </si>
+  <si>
+    <t>Caesar Salad</t>
+  </si>
+  <si>
+    <t>Romaine lettuce, parmesan, croutons, Caesar dressing</t>
+  </si>
+  <si>
+    <t>https://example.com/caesar_salad.jpg</t>
+  </si>
+  <si>
+    <t>Spaghetti Bolognese</t>
+  </si>
+  <si>
+    <t>Spaghetti, ground beef, tomato sauce, garlic</t>
+  </si>
+  <si>
+    <t>https://example.com/spaghetti_bolognese.jpg</t>
+  </si>
+  <si>
+    <t>Chicken Tikka Masala</t>
+  </si>
+  <si>
+    <t>Chicken, tikka spices, yogurt, cream</t>
+  </si>
+  <si>
+    <t>https://example.com/chicken_tikka_masala.jpg</t>
+  </si>
+  <si>
+    <t>Vegetable Stir Fry</t>
+  </si>
+  <si>
+    <t>Mixed vegetables, soy sauce, garlic, ginger</t>
+  </si>
+  <si>
+    <t>https://example.com/vegetable_stir_fry.jpg</t>
+  </si>
+  <si>
+    <t>Grilled Salmon</t>
+  </si>
+  <si>
+    <t>Salmon, lemon, olive oil, herbs</t>
+  </si>
+  <si>
+    <t>https://example.com/grilled_salmon.jpg</t>
+  </si>
+  <si>
+    <t>Chocolate Lava Cake</t>
+  </si>
+  <si>
+    <t>Chocolate, butter, sugar, eggs, flour</t>
+  </si>
+  <si>
+    <t>https://example.com/chocolate_lava_cake.jpg</t>
+  </si>
+  <si>
+    <t>French Fries</t>
+  </si>
+  <si>
+    <t>Potatoes, salt, oil</t>
+  </si>
+  <si>
+    <t>https://example.com/french_fries.jpg</t>
+  </si>
+  <si>
+    <t>Garlic Bread</t>
+  </si>
+  <si>
+    <t>Bread, garlic, butter, parsley</t>
+  </si>
+  <si>
+    <t>https://example.com/garlic_bread.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,14 +259,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -767,7 +561,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -810,13 +604,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -850,7 +642,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1190,16 +981,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EAB86B-962C-4989-8B58-B102F2EA062D}">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCDC64D-66AC-438E-9A43-A5B2275C62CA}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="37.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,492 +1004,351 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>10.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>15.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>9.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>15.34</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
+      <c r="D10" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>15.34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>15.34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>16.68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>15.34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>15.34</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>15.34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>16.68</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>15.34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>15.34</v>
+        <v>3.5</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>16.68</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>15.34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14">
-        <v>14.67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>15.34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16">
-        <v>16.68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>15.34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>15.34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
-        <v>15.34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>15.34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21">
-        <v>16.68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22">
-        <v>15.34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23">
-        <v>15.34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24">
-        <v>15.34</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>15.34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
-        <v>15.34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27">
-        <v>15.34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28">
-        <v>16.68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29">
-        <v>16.68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30">
-        <v>5.03</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31">
-        <v>5.03</v>
-      </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32">
-        <v>5.96</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33">
-        <v>6.63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D35" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{11A0EBB2-9FC3-4221-AF5B-F0D72A4F336B}"/>
-    <hyperlink ref="D32" r:id="rId2" xr:uid="{3A3A61E9-6A78-4F13-8A25-42B814468648}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{1E6160DD-B8AE-4EED-89DC-0878F6A73B1A}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{1FBA63AB-52A7-4D7A-81A3-151E23D13C56}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100713B635BCFDCEC4783B86E3DC7238F20" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99b2b3bdc247c7e5552acbf9de3bc5a2">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="528740ef-0b22-437d-9d57-76926f8cb9a6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f41e81703aafa0a3d8d5016a13fcd123" ns3:_="">
+    <xsd:import namespace="528740ef-0b22-437d-9d57-76926f8cb9a6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="528740ef-0b22-437d-9d57-76926f8cb9a6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA6B3E00-BD19-459F-8417-FF1832CA11BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="528740ef-0b22-437d-9d57-76926f8cb9a6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4FE0E48-D807-4144-9D46-716414EB7200}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E53EBD0-E55F-418A-B4E1-8492EC8D3016}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="528740ef-0b22-437d-9d57-76926f8cb9a6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/uploads/menu_file.xlsx
+++ b/uploads/menu_file.xlsx
@@ -14,58 +14,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Item Ingredients</t>
-  </si>
-  <si>
-    <t>Item Price</t>
-  </si>
-  <si>
-    <t>Image Link</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ingredients</t>
+  </si>
+  <si>
+    <t>price_eur</t>
+  </si>
+  <si>
+    <t>image_link</t>
   </si>
   <si>
     <t>Chicken Biryani</t>
   </si>
   <si>
-    <t>Vegetable Samosa</t>
-  </si>
-  <si>
-    <t>Lamb Vindaloo</t>
-  </si>
-  <si>
-    <t>Mango Lassi</t>
-  </si>
-  <si>
-    <t>Garlic Naan</t>
-  </si>
-  <si>
-    <t>Chicken, rice, spices, herbs</t>
-  </si>
-  <si>
-    <t>Potatoes, peas, spices, pastry</t>
-  </si>
-  <si>
-    <t>Lamb, vinegar, spices, chili</t>
-  </si>
-  <si>
-    <t>Mango, yogurt, sugar</t>
-  </si>
-  <si>
-    <t>Flour, garlic, butter</t>
-  </si>
-  <si>
-    <t>(URL to image)</t>
+    <t>Lamb Biryani</t>
+  </si>
+  <si>
+    <t>Vegetable Biryani</t>
+  </si>
+  <si>
+    <t>Shawarma Wrap</t>
+  </si>
+  <si>
+    <t>Falafel Wrap</t>
+  </si>
+  <si>
+    <t>Rice, Chicken, Spices</t>
+  </si>
+  <si>
+    <t>Rice, Lamb, Spices</t>
+  </si>
+  <si>
+    <t>Rice, Vegetables, Spices</t>
+  </si>
+  <si>
+    <t>Chicken, Salad, Sauce, Wrap</t>
+  </si>
+  <si>
+    <t>Falafel, Salad, Sauce, Wrap</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/x8G2BXW/download.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Y3fRk5W/download-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/X8RDYP2/download-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/2YYHkpv/download-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/ngv68Rw/download-4.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +92,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,16 +133,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,9 +469,9 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>15.99</v>
-      </c>
-      <c r="D2" t="s">
+        <v>19.19</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -458,10 +483,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>5.99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+        <v>21.18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,10 +497,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>18.99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
+        <v>16.54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,10 +511,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.99</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>9.93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +525,20 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>3.99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>8.6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>